--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_hoog.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_hoog.xlsx
@@ -406,25 +406,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1498</v>
+        <v>1505.730094935563</v>
       </c>
       <c r="C2">
-        <v>1480</v>
+        <v>1482.659367292297</v>
       </c>
       <c r="D2">
-        <v>1053</v>
+        <v>1054.218203400688</v>
       </c>
       <c r="E2">
-        <v>1635</v>
+        <v>1641.065310037129</v>
       </c>
       <c r="F2">
-        <v>1536</v>
+        <v>1540.366991430833</v>
       </c>
       <c r="G2">
-        <v>1585</v>
+        <v>1589.319899554724</v>
       </c>
       <c r="H2">
-        <v>1636</v>
+        <v>1642.72015540434</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -432,25 +432,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1537</v>
+        <v>1543.621119192856</v>
       </c>
       <c r="C3">
-        <v>1483</v>
+        <v>1489.660156732298</v>
       </c>
       <c r="D3">
-        <v>1024</v>
+        <v>1028.556352226926</v>
       </c>
       <c r="E3">
-        <v>1643</v>
+        <v>1649.511916152012</v>
       </c>
       <c r="F3">
-        <v>1559</v>
+        <v>1565.302392880995</v>
       </c>
       <c r="G3">
-        <v>1587</v>
+        <v>1593.901005905419</v>
       </c>
       <c r="H3">
-        <v>1644</v>
+        <v>1650.71200068266</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -458,25 +458,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1415</v>
+        <v>1421.612905331771</v>
       </c>
       <c r="C4">
-        <v>1533</v>
+        <v>1536.745462111212</v>
       </c>
       <c r="D4">
-        <v>783</v>
+        <v>770.0498650957028</v>
       </c>
       <c r="E4">
-        <v>1622</v>
+        <v>1628.84884246994</v>
       </c>
       <c r="F4">
-        <v>1451</v>
+        <v>1457.830666557993</v>
       </c>
       <c r="G4">
-        <v>1550</v>
+        <v>1555.648480433783</v>
       </c>
       <c r="H4">
-        <v>1622</v>
+        <v>1629.731575774725</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -484,25 +484,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1593</v>
+        <v>1599.557046887749</v>
       </c>
       <c r="C5">
-        <v>1585</v>
+        <v>1589.172341735097</v>
       </c>
       <c r="D5">
-        <v>374</v>
+        <v>372.791991144114</v>
       </c>
       <c r="E5">
-        <v>1661</v>
+        <v>1665.468823484424</v>
       </c>
       <c r="F5">
-        <v>1595</v>
+        <v>1601.191988968261</v>
       </c>
       <c r="G5">
-        <v>1600</v>
+        <v>1604.157106965235</v>
       </c>
       <c r="H5">
-        <v>1661</v>
+        <v>1665.656478443706</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -510,25 +510,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1580</v>
+        <v>1585.162946869089</v>
       </c>
       <c r="C6">
-        <v>1583</v>
+        <v>1586.12702903763</v>
       </c>
       <c r="D6">
-        <v>184</v>
+        <v>187.6397414329435</v>
       </c>
       <c r="E6">
-        <v>1657</v>
+        <v>1662.538223456871</v>
       </c>
       <c r="F6">
-        <v>1583</v>
+        <v>1587.64886275616</v>
       </c>
       <c r="G6">
-        <v>1589</v>
+        <v>1592.155716468016</v>
       </c>
       <c r="H6">
-        <v>1657</v>
+        <v>1662.592171833827</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -536,25 +536,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1607</v>
+        <v>1612.1304178267</v>
       </c>
       <c r="C7">
-        <v>1590</v>
+        <v>1595.448448823696</v>
       </c>
       <c r="D7">
-        <v>339</v>
+        <v>341.2147995783006</v>
       </c>
       <c r="E7">
-        <v>1661</v>
+        <v>1666.496209868257</v>
       </c>
       <c r="F7">
-        <v>1609</v>
+        <v>1614.422536682491</v>
       </c>
       <c r="G7">
-        <v>1601</v>
+        <v>1605.734104783698</v>
       </c>
       <c r="H7">
-        <v>1661</v>
+        <v>1666.659364228769</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -562,25 +562,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1516</v>
+        <v>1524.199078212293</v>
       </c>
       <c r="C8">
-        <v>1432</v>
+        <v>1433.203986887945</v>
       </c>
       <c r="D8">
-        <v>323</v>
+        <v>326.4477621688607</v>
       </c>
       <c r="E8">
-        <v>1612</v>
+        <v>1621.016637854812</v>
       </c>
       <c r="F8">
-        <v>1516</v>
+        <v>1524.716381781736</v>
       </c>
       <c r="G8">
-        <v>1463</v>
+        <v>1465.874424671512</v>
       </c>
       <c r="H8">
-        <v>1612</v>
+        <v>1621.249539289433</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -588,25 +588,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1616</v>
+        <v>1625.195807347984</v>
       </c>
       <c r="C9">
-        <v>1539</v>
+        <v>1546.589363101275</v>
       </c>
       <c r="D9">
-        <v>426</v>
+        <v>427.8133966681748</v>
       </c>
       <c r="E9">
-        <v>1654</v>
+        <v>1663.019301873826</v>
       </c>
       <c r="F9">
-        <v>1620</v>
+        <v>1628.197875621464</v>
       </c>
       <c r="G9">
-        <v>1559</v>
+        <v>1566.306438240137</v>
       </c>
       <c r="H9">
-        <v>1655</v>
+        <v>1663.386026970141</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -614,25 +614,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1565</v>
+        <v>1570.125201648339</v>
       </c>
       <c r="C10">
-        <v>1587</v>
+        <v>1589.572658536279</v>
       </c>
       <c r="D10">
-        <v>1017</v>
+        <v>1009.221651457342</v>
       </c>
       <c r="E10">
-        <v>1658</v>
+        <v>1662.741626091052</v>
       </c>
       <c r="F10">
-        <v>1592</v>
+        <v>1596.381014948465</v>
       </c>
       <c r="G10">
-        <v>1635</v>
+        <v>1641.04387868246</v>
       </c>
       <c r="H10">
-        <v>1659</v>
+        <v>1664.172647136288</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -640,25 +640,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1550</v>
+        <v>1555.234797529095</v>
       </c>
       <c r="C11">
-        <v>1589</v>
+        <v>1591.98943187592</v>
       </c>
       <c r="D11">
-        <v>919</v>
+        <v>916.8538657187961</v>
       </c>
       <c r="E11">
-        <v>1659</v>
+        <v>1664.139707617842</v>
       </c>
       <c r="F11">
-        <v>1577</v>
+        <v>1580.998156961288</v>
       </c>
       <c r="G11">
-        <v>1633</v>
+        <v>1637.111851400533</v>
       </c>
       <c r="H11">
-        <v>1660</v>
+        <v>1665.265662253962</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -666,25 +666,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1293</v>
+        <v>1297.715867080148</v>
       </c>
       <c r="C12">
-        <v>1591</v>
+        <v>1594.044308298733</v>
       </c>
       <c r="D12">
-        <v>482</v>
+        <v>477.0849773684319</v>
       </c>
       <c r="E12">
-        <v>1646</v>
+        <v>1650.286811872499</v>
       </c>
       <c r="F12">
-        <v>1343</v>
+        <v>1344.132768786582</v>
       </c>
       <c r="G12">
-        <v>1601</v>
+        <v>1605.589635760548</v>
       </c>
       <c r="H12">
-        <v>1646</v>
+        <v>1650.444086449992</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -692,25 +692,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1554</v>
+        <v>1560.211442101217</v>
       </c>
       <c r="C13">
-        <v>1584</v>
+        <v>1587.962461674932</v>
       </c>
       <c r="D13">
-        <v>896</v>
+        <v>881.0403330087587</v>
       </c>
       <c r="E13">
-        <v>1655</v>
+        <v>1660.983155509591</v>
       </c>
       <c r="F13">
-        <v>1578</v>
+        <v>1583.751461116511</v>
       </c>
       <c r="G13">
-        <v>1627</v>
+        <v>1631.387590119088</v>
       </c>
       <c r="H13">
-        <v>1656</v>
+        <v>1662.183841794597</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_hoog.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_hoog.xlsx
@@ -432,25 +432,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1543.621119192856</v>
+        <v>1543.621119192858</v>
       </c>
       <c r="C3">
-        <v>1489.660156732298</v>
+        <v>1489.660156732299</v>
       </c>
       <c r="D3">
-        <v>1028.556352226926</v>
+        <v>1028.556352226927</v>
       </c>
       <c r="E3">
-        <v>1649.511916152012</v>
+        <v>1649.511916152014</v>
       </c>
       <c r="F3">
-        <v>1565.302392880995</v>
+        <v>1565.302392880996</v>
       </c>
       <c r="G3">
-        <v>1593.901005905419</v>
+        <v>1593.901005905421</v>
       </c>
       <c r="H3">
-        <v>1650.71200068266</v>
+        <v>1650.712000682662</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -464,19 +464,19 @@
         <v>1536.745462111212</v>
       </c>
       <c r="D4">
-        <v>770.0498650957028</v>
+        <v>770.0498650957035</v>
       </c>
       <c r="E4">
         <v>1628.84884246994</v>
       </c>
       <c r="F4">
-        <v>1457.830666557993</v>
+        <v>1457.830666557994</v>
       </c>
       <c r="G4">
         <v>1555.648480433783</v>
       </c>
       <c r="H4">
-        <v>1629.731575774725</v>
+        <v>1629.731575774726</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -484,19 +484,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1599.557046887749</v>
+        <v>1599.55704688775</v>
       </c>
       <c r="C5">
         <v>1589.172341735097</v>
       </c>
       <c r="D5">
-        <v>372.791991144114</v>
+        <v>372.7919911441141</v>
       </c>
       <c r="E5">
         <v>1665.468823484424</v>
       </c>
       <c r="F5">
-        <v>1601.191988968261</v>
+        <v>1601.191988968262</v>
       </c>
       <c r="G5">
         <v>1604.157106965235</v>
@@ -510,10 +510,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1585.162946869089</v>
+        <v>1585.16294686909</v>
       </c>
       <c r="C6">
-        <v>1586.12702903763</v>
+        <v>1586.127029037631</v>
       </c>
       <c r="D6">
         <v>187.6397414329435</v>
@@ -525,7 +525,7 @@
         <v>1587.64886275616</v>
       </c>
       <c r="G6">
-        <v>1592.155716468016</v>
+        <v>1592.155716468017</v>
       </c>
       <c r="H6">
         <v>1662.592171833827</v>
@@ -536,10 +536,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1612.1304178267</v>
+        <v>1612.130417826699</v>
       </c>
       <c r="C7">
-        <v>1595.448448823696</v>
+        <v>1595.448448823695</v>
       </c>
       <c r="D7">
         <v>341.2147995783006</v>
@@ -554,7 +554,7 @@
         <v>1605.734104783698</v>
       </c>
       <c r="H7">
-        <v>1666.659364228769</v>
+        <v>1666.659364228768</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -562,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1524.199078212293</v>
+        <v>1524.199078212294</v>
       </c>
       <c r="C8">
         <v>1433.203986887945</v>
@@ -580,7 +580,7 @@
         <v>1465.874424671512</v>
       </c>
       <c r="H8">
-        <v>1621.249539289433</v>
+        <v>1621.249539289432</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -588,25 +588,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1625.195807347984</v>
+        <v>1625.195807347985</v>
       </c>
       <c r="C9">
-        <v>1546.589363101275</v>
+        <v>1546.589363101276</v>
       </c>
       <c r="D9">
-        <v>427.8133966681748</v>
+        <v>427.8133966681751</v>
       </c>
       <c r="E9">
-        <v>1663.019301873826</v>
+        <v>1663.019301873827</v>
       </c>
       <c r="F9">
-        <v>1628.197875621464</v>
+        <v>1628.197875621465</v>
       </c>
       <c r="G9">
-        <v>1566.306438240137</v>
+        <v>1566.306438240138</v>
       </c>
       <c r="H9">
-        <v>1663.386026970141</v>
+        <v>1663.386026970142</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -614,7 +614,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1570.125201648339</v>
+        <v>1570.12520164834</v>
       </c>
       <c r="C10">
         <v>1589.572658536279</v>
@@ -626,13 +626,13 @@
         <v>1662.741626091052</v>
       </c>
       <c r="F10">
-        <v>1596.381014948465</v>
+        <v>1596.381014948466</v>
       </c>
       <c r="G10">
-        <v>1641.04387868246</v>
+        <v>1641.043878682461</v>
       </c>
       <c r="H10">
-        <v>1664.172647136288</v>
+        <v>1664.172647136289</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -640,25 +640,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1555.234797529095</v>
+        <v>1555.234797529094</v>
       </c>
       <c r="C11">
         <v>1591.98943187592</v>
       </c>
       <c r="D11">
-        <v>916.8538657187961</v>
+        <v>916.8538657187954</v>
       </c>
       <c r="E11">
-        <v>1664.139707617842</v>
+        <v>1664.13970761784</v>
       </c>
       <c r="F11">
-        <v>1580.998156961288</v>
+        <v>1580.998156961286</v>
       </c>
       <c r="G11">
-        <v>1637.111851400533</v>
+        <v>1637.111851400532</v>
       </c>
       <c r="H11">
-        <v>1665.265662253962</v>
+        <v>1665.265662253961</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -672,7 +672,7 @@
         <v>1594.044308298733</v>
       </c>
       <c r="D12">
-        <v>477.0849773684319</v>
+        <v>477.0849773684316</v>
       </c>
       <c r="E12">
         <v>1650.286811872499</v>
@@ -698,7 +698,7 @@
         <v>1587.962461674932</v>
       </c>
       <c r="D13">
-        <v>881.0403330087587</v>
+        <v>881.0403330087589</v>
       </c>
       <c r="E13">
         <v>1660.983155509591</v>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_hoog.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/bestemmingen/restdag/Ontpl_totaal_hoog.xlsx
@@ -406,25 +406,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1505.730094935563</v>
+        <v>1506</v>
       </c>
       <c r="C2">
-        <v>1482.659367292297</v>
+        <v>1483</v>
       </c>
       <c r="D2">
-        <v>1054.218203400688</v>
+        <v>1054</v>
       </c>
       <c r="E2">
-        <v>1641.065310037129</v>
+        <v>1641</v>
       </c>
       <c r="F2">
-        <v>1540.366991430833</v>
+        <v>1540</v>
       </c>
       <c r="G2">
-        <v>1589.319899554724</v>
+        <v>1589</v>
       </c>
       <c r="H2">
-        <v>1642.72015540434</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -432,25 +432,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1543.621119192858</v>
+        <v>1544</v>
       </c>
       <c r="C3">
-        <v>1489.660156732299</v>
+        <v>1490</v>
       </c>
       <c r="D3">
-        <v>1028.556352226927</v>
+        <v>1029</v>
       </c>
       <c r="E3">
-        <v>1649.511916152014</v>
+        <v>1650</v>
       </c>
       <c r="F3">
-        <v>1565.302392880996</v>
+        <v>1565</v>
       </c>
       <c r="G3">
-        <v>1593.901005905421</v>
+        <v>1594</v>
       </c>
       <c r="H3">
-        <v>1650.712000682662</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -458,25 +458,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1421.612905331771</v>
+        <v>1422</v>
       </c>
       <c r="C4">
-        <v>1536.745462111212</v>
+        <v>1537</v>
       </c>
       <c r="D4">
-        <v>770.0498650957035</v>
+        <v>770</v>
       </c>
       <c r="E4">
-        <v>1628.84884246994</v>
+        <v>1629</v>
       </c>
       <c r="F4">
-        <v>1457.830666557994</v>
+        <v>1458</v>
       </c>
       <c r="G4">
-        <v>1555.648480433783</v>
+        <v>1556</v>
       </c>
       <c r="H4">
-        <v>1629.731575774726</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -484,25 +484,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1599.55704688775</v>
+        <v>1600</v>
       </c>
       <c r="C5">
-        <v>1589.172341735097</v>
+        <v>1589</v>
       </c>
       <c r="D5">
-        <v>372.7919911441141</v>
+        <v>373</v>
       </c>
       <c r="E5">
-        <v>1665.468823484424</v>
+        <v>1665</v>
       </c>
       <c r="F5">
-        <v>1601.191988968262</v>
+        <v>1601</v>
       </c>
       <c r="G5">
-        <v>1604.157106965235</v>
+        <v>1604</v>
       </c>
       <c r="H5">
-        <v>1665.656478443706</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -510,25 +510,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1585.16294686909</v>
+        <v>1585</v>
       </c>
       <c r="C6">
-        <v>1586.127029037631</v>
+        <v>1586</v>
       </c>
       <c r="D6">
-        <v>187.6397414329435</v>
+        <v>188</v>
       </c>
       <c r="E6">
-        <v>1662.538223456871</v>
+        <v>1663</v>
       </c>
       <c r="F6">
-        <v>1587.64886275616</v>
+        <v>1588</v>
       </c>
       <c r="G6">
-        <v>1592.155716468017</v>
+        <v>1592</v>
       </c>
       <c r="H6">
-        <v>1662.592171833827</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -536,25 +536,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1612.130417826699</v>
+        <v>1612</v>
       </c>
       <c r="C7">
-        <v>1595.448448823695</v>
+        <v>1595</v>
       </c>
       <c r="D7">
-        <v>341.2147995783006</v>
+        <v>341</v>
       </c>
       <c r="E7">
-        <v>1666.496209868257</v>
+        <v>1666</v>
       </c>
       <c r="F7">
-        <v>1614.422536682491</v>
+        <v>1614</v>
       </c>
       <c r="G7">
-        <v>1605.734104783698</v>
+        <v>1606</v>
       </c>
       <c r="H7">
-        <v>1666.659364228768</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -562,25 +562,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1524.199078212294</v>
+        <v>1524</v>
       </c>
       <c r="C8">
-        <v>1433.203986887945</v>
+        <v>1433</v>
       </c>
       <c r="D8">
-        <v>326.4477621688607</v>
+        <v>326</v>
       </c>
       <c r="E8">
-        <v>1621.016637854812</v>
+        <v>1621</v>
       </c>
       <c r="F8">
-        <v>1524.716381781736</v>
+        <v>1525</v>
       </c>
       <c r="G8">
-        <v>1465.874424671512</v>
+        <v>1466</v>
       </c>
       <c r="H8">
-        <v>1621.249539289432</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -588,25 +588,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1625.195807347985</v>
+        <v>1625</v>
       </c>
       <c r="C9">
-        <v>1546.589363101276</v>
+        <v>1547</v>
       </c>
       <c r="D9">
-        <v>427.8133966681751</v>
+        <v>428</v>
       </c>
       <c r="E9">
-        <v>1663.019301873827</v>
+        <v>1663</v>
       </c>
       <c r="F9">
-        <v>1628.197875621465</v>
+        <v>1628</v>
       </c>
       <c r="G9">
-        <v>1566.306438240138</v>
+        <v>1566</v>
       </c>
       <c r="H9">
-        <v>1663.386026970142</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -614,25 +614,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1570.12520164834</v>
+        <v>1570</v>
       </c>
       <c r="C10">
-        <v>1589.572658536279</v>
+        <v>1590</v>
       </c>
       <c r="D10">
-        <v>1009.221651457342</v>
+        <v>1009</v>
       </c>
       <c r="E10">
-        <v>1662.741626091052</v>
+        <v>1663</v>
       </c>
       <c r="F10">
-        <v>1596.381014948466</v>
+        <v>1596</v>
       </c>
       <c r="G10">
-        <v>1641.043878682461</v>
+        <v>1641</v>
       </c>
       <c r="H10">
-        <v>1664.172647136289</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -640,25 +640,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1555.234797529094</v>
+        <v>1555</v>
       </c>
       <c r="C11">
-        <v>1591.98943187592</v>
+        <v>1592</v>
       </c>
       <c r="D11">
-        <v>916.8538657187954</v>
+        <v>917</v>
       </c>
       <c r="E11">
-        <v>1664.13970761784</v>
+        <v>1664</v>
       </c>
       <c r="F11">
-        <v>1580.998156961286</v>
+        <v>1581</v>
       </c>
       <c r="G11">
-        <v>1637.111851400532</v>
+        <v>1637</v>
       </c>
       <c r="H11">
-        <v>1665.265662253961</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -666,25 +666,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1297.715867080148</v>
+        <v>1298</v>
       </c>
       <c r="C12">
-        <v>1594.044308298733</v>
+        <v>1594</v>
       </c>
       <c r="D12">
-        <v>477.0849773684316</v>
+        <v>477</v>
       </c>
       <c r="E12">
-        <v>1650.286811872499</v>
+        <v>1650</v>
       </c>
       <c r="F12">
-        <v>1344.132768786582</v>
+        <v>1344</v>
       </c>
       <c r="G12">
-        <v>1605.589635760548</v>
+        <v>1606</v>
       </c>
       <c r="H12">
-        <v>1650.444086449992</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -692,25 +692,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1560.211442101217</v>
+        <v>1560</v>
       </c>
       <c r="C13">
-        <v>1587.962461674932</v>
+        <v>1588</v>
       </c>
       <c r="D13">
-        <v>881.0403330087589</v>
+        <v>881</v>
       </c>
       <c r="E13">
-        <v>1660.983155509591</v>
+        <v>1661</v>
       </c>
       <c r="F13">
-        <v>1583.751461116511</v>
+        <v>1584</v>
       </c>
       <c r="G13">
-        <v>1631.387590119088</v>
+        <v>1631</v>
       </c>
       <c r="H13">
-        <v>1662.183841794597</v>
+        <v>1662</v>
       </c>
     </row>
   </sheetData>
